--- a/0_1_Output_Data/6_naive_forecaster_qoq_error_series_ifoCASTset_naive_qoq_full/AVERAGE_10_9_qoq_errors_first_eval_ifoCASTset_naive_qoq_full.xlsx
+++ b/0_1_Output_Data/6_naive_forecaster_qoq_error_series_ifoCASTset_naive_qoq_full/AVERAGE_10_9_qoq_errors_first_eval_ifoCASTset_naive_qoq_full.xlsx
@@ -582,34 +582,34 @@
         <v>10</v>
       </c>
       <c r="B2">
+        <v>-0.5351204465965399</v>
+      </c>
+      <c r="C2">
         <v>-1.66950562919271</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>-0.2895456687149427</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>-0.6733414736251095</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>0.0115444171491989</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>-0.6804809672324722</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>-0.4410326232298434</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>-0.4043046464706727</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>0.4221894279166428</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>-0.2336087822049224</v>
-      </c>
-      <c r="K2">
-        <v>-0.8917590219305432</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -617,34 +617,34 @@
         <v>11</v>
       </c>
       <c r="B3">
+        <v>0.01136921538350649</v>
+      </c>
+      <c r="C3">
         <v>-0.3724265895266604</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>0.3124593012476481</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>-0.3795660831340231</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>-0.1401177391313942</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>-0.1033897623722235</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>0.723104312015092</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>0.06730610189352677</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>-0.5908441378320941</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>-0.191729189980311</v>
-      </c>
-      <c r="K3">
-        <v>-0.2531657321018884</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -652,34 +652,34 @@
         <v>12</v>
       </c>
       <c r="B4">
+        <v>0.9526635850093691</v>
+      </c>
+      <c r="C4">
         <v>0.2606382006276979</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>0.5000865446303268</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>0.5368145213894975</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>1.363308595776813</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>0.7075103856552477</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>0.0493601459296269</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>0.44847509378141</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>0.3870385516598326</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>-0.04712738345727097</v>
-      </c>
-      <c r="K4">
-        <v>0.9316740086218059</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -687,34 +687,34 @@
         <v>13</v>
       </c>
       <c r="B5">
+        <v>0.4274989419678774</v>
+      </c>
+      <c r="C5">
         <v>0.4642269187270481</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>1.290720993114364</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>0.6349227829927984</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>-0.02322745673282245</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>0.3758874911189606</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>0.3144509489973832</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>-0.1197149861197203</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>0.8590864059593566</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>0.6319705015114304</v>
-      </c>
-      <c r="K5">
-        <v>-0.001489227914658109</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -722,34 +722,34 @@
         <v>14</v>
       </c>
       <c r="B6">
+        <v>1.235029948750828</v>
+      </c>
+      <c r="C6">
         <v>0.5792317386292632</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>-0.07891850109635756</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>0.3201964467554255</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>0.2587599046338481</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>-0.1754060304832554</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>0.8033953615958215</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>0.5762794571478953</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>-0.05718027227819322</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>0.3702166863774111</v>
-      </c>
-      <c r="K6">
-        <v>0.2038797316892642</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -757,34 +757,34 @@
         <v>15</v>
       </c>
       <c r="B7">
+        <v>-0.4329776612703231</v>
+      </c>
+      <c r="C7">
         <v>-0.03386271341853997</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>-0.09529925554011737</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>-0.529465190657221</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.449336201421856</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>0.2222202969739298</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>-0.4112394324521587</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>0.01615752620344563</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>-0.1501794284847013</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>-0.02746841204387546</v>
-      </c>
-      <c r="K7">
-        <v>0.01976532451126484</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -792,34 +792,34 @@
         <v>16</v>
       </c>
       <c r="B8">
+        <v>-0.1856174723396913</v>
+      </c>
+      <c r="C8">
         <v>-0.6197834074567948</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>0.3590179846222821</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>0.1319020801743559</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>-0.5015576492517326</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>-0.07416069059612829</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>-0.2404976452842752</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>-0.1177866288434494</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>-0.07055289228830908</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>-0.4671716238107607</v>
-      </c>
-      <c r="K8">
-        <v>-0.2131195886870406</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -827,34 +827,34 @@
         <v>17</v>
       </c>
       <c r="B9">
+        <v>0.4273407187267424</v>
+      </c>
+      <c r="C9">
         <v>0.2002248142788162</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>-0.4332349151472724</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>-0.005837956491668017</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>-0.1721749111798149</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>-0.0494638947389891</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>-0.002230158183848807</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>-0.3988488897063004</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>-0.1447968545825803</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>0.07532753529099229</v>
-      </c>
-      <c r="K9">
-        <v>-0.1604609132956759</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -862,34 +862,34 @@
         <v>18</v>
       </c>
       <c r="B10">
+        <v>-0.5318964931771777</v>
+      </c>
+      <c r="C10">
         <v>-0.1044995345215733</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>-0.2708364892097202</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>-0.1481254727688944</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>-0.1008917362137541</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>-0.4975104677362057</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>-0.2434584326124856</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>-0.02333404273891299</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>-0.2591224913255812</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>-0.4380952487963659</v>
-      </c>
-      <c r="K10">
-        <v>-0.4486557790556869</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -897,34 +897,34 @@
         <v>19</v>
       </c>
       <c r="B11">
+        <v>-0.1938269109680474</v>
+      </c>
+      <c r="C11">
         <v>-0.07111589452722158</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>-0.02388215797208129</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>-0.4205008894945329</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>-0.1664488543708128</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>0.0536755355027598</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>-0.1821129130839084</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>-0.3610856705546931</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>-0.3716462008140141</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>-0.5793653109721442</v>
-      </c>
-      <c r="K11">
-        <v>-0.3621564114972394</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -932,34 +932,34 @@
         <v>20</v>
       </c>
       <c r="B12">
+        <v>0.1476338940440795</v>
+      </c>
+      <c r="C12">
         <v>-0.2489848374783721</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>0.005067197645347965</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>0.2251915875189206</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>-0.0105968610677476</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>-0.1895696185385323</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>-0.2001301487978533</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>-0.4078492589559834</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>-0.1906403594810787</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>0.1190458097769828</v>
-      </c>
-      <c r="K12">
-        <v>-0.03525832405502122</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -967,34 +967,34 @@
         <v>21</v>
       </c>
       <c r="B13">
+        <v>-0.0323979044984018</v>
+      </c>
+      <c r="C13">
         <v>0.1877264853751708</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>-0.04806196321149736</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>-0.2270347206822821</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>-0.2375952509416031</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>-0.4453143610997332</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>-0.2281054616248284</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>0.08158070763323305</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>-0.07272342619877098</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>0.5777029950204122</v>
-      </c>
-      <c r="K13">
-        <v>0.361537946402203</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1002,34 +1002,34 @@
         <v>22</v>
       </c>
       <c r="B14">
+        <v>-0.06996447561954</v>
+      </c>
+      <c r="C14">
         <v>-0.2489372330903247</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>-0.2594977633496457</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>-0.4672168735077758</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>-0.2500079740328711</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>0.05967819522519041</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>-0.09462593860681362</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>0.5558004826123696</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>0.3396354339941604</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>-0.0673936950407959</v>
-      </c>
-      <c r="K14">
-        <v>0.4316485221366239</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1037,34 +1037,34 @@
         <v>23</v>
       </c>
       <c r="B15">
+        <v>-0.1713918715036764</v>
+      </c>
+      <c r="C15">
         <v>-0.3791109816618064</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>-0.1619020821869017</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>0.1477840870711598</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>-0.006520046760844223</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>0.643906374458339</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>0.4277413258401298</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>0.0207121968051735</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>0.5197544139825933</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>0.3609055008270807</v>
-      </c>
-      <c r="K15">
-        <v>0.4170693217973248</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1072,34 +1072,34 @@
         <v>24</v>
       </c>
       <c r="B16">
+        <v>-0.06818896562035748</v>
+      </c>
+      <c r="C16">
         <v>0.241497203637704</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>0.08719306980569996</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>0.7376194910248832</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>0.521454442406674</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>0.1144253133717177</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>0.6134675305491375</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>0.4546186173936249</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>0.5107824383638689</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>2.760585277975261</v>
-      </c>
-      <c r="K16">
-        <v>10.22973560883255</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1107,34 +1107,34 @@
         <v>25</v>
       </c>
       <c r="B17">
+        <v>0.2497007499081394</v>
+      </c>
+      <c r="C17">
         <v>0.09539661607613537</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>0.7458230372953185</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>0.5296579886771094</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>0.1226288596421531</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>0.6216710768195729</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>0.4628221636640603</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>0.5189859846343043</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>2.768788824245696</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>10.23793915510299</v>
-      </c>
-      <c r="K17">
-        <v>-7.933322645034479</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1142,34 +1142,34 @@
         <v>26</v>
       </c>
       <c r="B18">
+        <v>0.09280705542466716</v>
+      </c>
+      <c r="C18">
         <v>0.7432334766438504</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>0.5270684280256412</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>0.1200392989906849</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>0.6190815161681047</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>0.4602326030125921</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>0.5163964239828361</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>2.766199263594229</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>10.23534959445152</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>-7.935912205685947</v>
-      </c>
-      <c r="K18">
-        <v>0.2037593412932021</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1177,34 +1177,34 @@
         <v>27</v>
       </c>
       <c r="B19">
+        <v>0.7497668092269023</v>
+      </c>
+      <c r="C19">
         <v>0.5336017606086931</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>0.1265726315737368</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>0.6256148487511566</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>0.466765935595644</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>0.522929756565888</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>2.77273259617728</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>10.24188292703457</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>-7.929378873102896</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>0.2102926738762539</v>
-      </c>
-      <c r="K19">
-        <v>2.357863145675646</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1212,34 +1212,34 @@
         <v>28</v>
       </c>
       <c r="B20">
+        <v>0.4223850656296224</v>
+      </c>
+      <c r="C20">
         <v>0.01535593659466611</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>0.5143981537720859</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>0.3555492406165733</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>0.4117130615868174</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>2.661515901198209</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>10.1306662320555</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>-8.040595568081965</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>0.09907597889718328</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>2.246646450696576</v>
-      </c>
-      <c r="K20">
-        <v>-1.193383535826754</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1247,34 +1247,34 @@
         <v>29</v>
       </c>
       <c r="B21">
+        <v>-0.02639020739223796</v>
+      </c>
+      <c r="C21">
         <v>0.4726520097851818</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>0.3138030966296693</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>0.3699669175999133</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>2.619769757211305</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>10.0889200880686</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>-8.082341712068869</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>0.05732983491027921</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>2.204900306709672</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>-1.235129679813658</v>
-      </c>
-      <c r="K21">
-        <v>-1.296303858227859</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1282,34 +1282,34 @@
         <v>30</v>
       </c>
       <c r="B22">
+        <v>0.4979670725178967</v>
+      </c>
+      <c r="C22">
         <v>0.3391181593623842</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>0.3952819803326282</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>2.64508481994402</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>10.11423515080131</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>-8.057026649336155</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>0.0826448976429941</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>2.230215369442386</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>-1.209814617080943</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>-1.270988795495144</v>
-      </c>
-      <c r="K22">
-        <v>0.77046714166111</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1317,34 +1317,34 @@
         <v>31</v>
       </c>
       <c r="B23">
+        <v>0.343156824405298</v>
+      </c>
+      <c r="C23">
         <v>0.3993206453755421</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>2.649123484986935</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>10.11827381584423</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>-8.052987984293241</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>0.08668356268590799</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>2.2342540344853</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>-1.20577595203803</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>-1.266950130452231</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>0.7745058067040239</v>
-      </c>
-      <c r="K23">
-        <v>0.1919112696703829</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1352,34 +1352,34 @@
         <v>32</v>
       </c>
       <c r="B24">
+        <v>0.2804435086845197</v>
+      </c>
+      <c r="C24">
         <v>2.530246348295912</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>9.999396679153206</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>-8.171865120984263</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>-0.03219357400511441</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>2.115376897794278</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>-1.324653088729052</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>-1.385827267143253</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>0.6556286700130015</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>0.07303413297936051</v>
-      </c>
-      <c r="K24">
-        <v>0.1687091737887183</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1387,34 +1387,34 @@
         <v>33</v>
       </c>
       <c r="B25">
+        <v>2.48932270964054</v>
+      </c>
+      <c r="C25">
         <v>9.958473040497832</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>-8.212788759639636</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>-0.07311721266048643</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>2.074453259138906</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>-1.365576727384424</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>-1.426750905798625</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>0.6147050313576294</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>0.03211049432398849</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>0.1277855351333463</v>
-      </c>
-      <c r="K25">
-        <v>-0.1326335018653765</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1422,34 +1422,34 @@
         <v>34</v>
       </c>
       <c r="B26">
+        <v>9.643547872076862</v>
+      </c>
+      <c r="C26">
         <v>-8.527713928060606</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>-0.388042381081458</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>1.759528090717934</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>-1.680501895805395</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>-1.741676074219596</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>0.2997798629366579</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>-0.2828146740969831</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>-0.1871396332876253</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>-0.4475586702863481</v>
-      </c>
-      <c r="K26">
-        <v>0.3878963258721431</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1457,34 +1457,34 @@
         <v>35</v>
       </c>
       <c r="B27">
+        <v>-9.584088888243137</v>
+      </c>
+      <c r="C27">
         <v>-1.444417341263988</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>0.7031531305354048</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>-2.736876855987925</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>-2.798051034402126</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>-0.7565950972458717</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>-1.339189634279513</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>-1.243514593470155</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>-1.503933630468878</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>-0.6684786343103865</v>
-      </c>
-      <c r="K27">
-        <v>-0.768557994213008</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1492,34 +1492,34 @@
         <v>36</v>
       </c>
       <c r="B28">
+        <v>-0.573770965293057</v>
+      </c>
+      <c r="C28">
         <v>1.573799506506335</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>-1.866230480016994</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>-1.927404658431195</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>0.1140512787250589</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>-0.4685432583085821</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>-0.3728682174992243</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>-0.6332872544979471</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>0.2021677416605441</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>0.1020883817579226</v>
-      </c>
-      <c r="K28">
-        <v>-0.2516981243217736</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1527,34 +1527,34 @@
         <v>37</v>
       </c>
       <c r="B29">
+        <v>1.563148290176452</v>
+      </c>
+      <c r="C29">
         <v>-1.876881696346878</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>-1.938055874761079</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>0.1034000623951754</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>-0.4791944746384656</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>-0.3835194338291078</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>-0.6439384708278306</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>0.1915165253306606</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>0.09143716542803909</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>-0.2623493406516572</v>
-      </c>
-      <c r="K29">
-        <v>-0.1141719502192118</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1562,34 +1562,34 @@
         <v>38</v>
       </c>
       <c r="B30">
+        <v>-1.985496228563019</v>
+      </c>
+      <c r="C30">
         <v>-2.04667040697722</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>-0.005214469820965406</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>-0.5878090068546065</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>-0.4921339660452486</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>-0.7525530030439714</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>0.08290199311451979</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>-0.01717736678810172</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>-0.370963872867798</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>-0.2227864824353526</v>
-      </c>
-      <c r="K30">
-        <v>-0.06534049343119763</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1597,34 +1597,34 @@
         <v>39</v>
       </c>
       <c r="B31">
+        <v>-1.838568686009481</v>
+      </c>
+      <c r="C31">
         <v>0.2028872511467736</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>-0.3797072858868674</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>-0.2840322450775096</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>-0.5444512820762324</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>0.2910037140822588</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>0.1909243541796373</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>-0.1628621519000589</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>-0.01468476146761361</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>0.1427612275365414</v>
-      </c>
-      <c r="K31">
-        <v>-0.3578982289895294</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1632,34 +1632,34 @@
         <v>40</v>
       </c>
       <c r="B32">
+        <v>0.319385421520574</v>
+      </c>
+      <c r="C32">
         <v>-0.263209115513067</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>-0.1675340747037092</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>-0.427953111702432</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>0.4075018844560592</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>0.3074225245534377</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>-0.04636398152625851</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>0.1018134089061868</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>0.2592593979103418</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>-0.241400058615729</v>
-      </c>
-      <c r="K32">
-        <v>0.03895782191974018</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1667,34 +1667,34 @@
         <v>41</v>
       </c>
       <c r="B33">
+        <v>-0.2177157015159319</v>
+      </c>
+      <c r="C33">
         <v>-0.1220406607065741</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>-0.3824596977052969</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>0.4529952984531944</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>0.3529159385505728</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>-0.0008705675291234075</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>0.1473068229033219</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>0.3047528119074769</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>-0.1959066446185939</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>0.08445123591687528</v>
-      </c>
-      <c r="K33">
-        <v>-0.08752362192813637</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1702,34 +1702,34 @@
         <v>42</v>
       </c>
       <c r="B34">
+        <v>-0.1395947820665385</v>
+      </c>
+      <c r="C34">
         <v>-0.4000138190652613</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>0.4354411770932299</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>0.3353618171906084</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>-0.01842468888908786</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>0.1297527015433575</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>0.2871986905475125</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>-0.2134607659785583</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>0.06689711455691082</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>-0.1050777432881008</v>
-      </c>
-      <c r="K34">
-        <v>0.2007847964582307</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1737,34 +1737,34 @@
         <v>43</v>
       </c>
       <c r="B35">
+        <v>-0.3119065001142551</v>
+      </c>
+      <c r="C35">
         <v>0.5235484960442361</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>0.4234691361416146</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>0.06968263006191837</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>0.2178600204943637</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>0.3753060094985187</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>-0.1253534470275521</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>0.155004433507917</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>-0.01697042433709459</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>0.2888921154092369</v>
-      </c>
-      <c r="K35">
-        <v>-0.3234378372780493</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1772,34 +1772,34 @@
         <v>44</v>
       </c>
       <c r="B36">
+        <v>0.7021231295320197</v>
+      </c>
+      <c r="C36">
         <v>0.6020437696293982</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>0.248257263549702</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>0.3964346539821473</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>0.5538806429863024</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>0.0532211864602315</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>0.3335790669957007</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>0.161604209150689</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>0.4674667488970205</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <v>-0.1448632037902657</v>
-      </c>
-      <c r="K36">
-        <v>0.5435081814088458</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1807,34 +1807,34 @@
         <v>45</v>
       </c>
       <c r="B37">
+        <v>1.514070997382048</v>
+      </c>
+      <c r="C37">
         <v>1.160284491302352</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>1.308461881734797</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>1.465907870738952</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>0.9652484142128814</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>1.245606294748351</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>1.073631436903339</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>1.379493976649671</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>0.7671640239623843</v>
       </c>
-      <c r="J37">
+      <c r="K37">
         <v>1.455535409161496</v>
-      </c>
-      <c r="K37">
-        <v>1.178844253737389</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1842,30 +1842,33 @@
         <v>46</v>
       </c>
       <c r="B38">
+        <v>0.2163102553365951</v>
+      </c>
+      <c r="C38">
         <v>0.3644876457690405</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>0.5219336347731955</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>0.02127417824712469</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>0.3016320587825939</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>0.1296572009375822</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>0.4355197406839137</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>-0.1768102120033725</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <v>0.511561173195739</v>
       </c>
-      <c r="J38">
+      <c r="K38">
         <v>0.2348700177716323</v>
       </c>
     </row>
@@ -1874,27 +1877,30 @@
         <v>47</v>
       </c>
       <c r="B39">
+        <v>0.3684555432821496</v>
+      </c>
+      <c r="C39">
         <v>0.5259015322863045</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>0.0252420757602338</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>0.305599956295703</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>0.1336250984506913</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>0.4394876381970228</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>-0.1728423144902634</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <v>0.5155290707088481</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <v>0.2388379152847414</v>
       </c>
     </row>
@@ -1903,24 +1909,27 @@
         <v>48</v>
       </c>
       <c r="B40">
+        <v>0.661541622456546</v>
+      </c>
+      <c r="C40">
         <v>0.1608821659304752</v>
       </c>
-      <c r="C40">
+      <c r="D40">
         <v>0.4412400464659443</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>0.2692651886209327</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>0.5751277283672642</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>-0.03720222432002201</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>0.6511691608790895</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <v>0.3744780054549828</v>
       </c>
     </row>
@@ -1929,21 +1938,24 @@
         <v>49</v>
       </c>
       <c r="B41">
+        <v>-0.07992401592518952</v>
+      </c>
+      <c r="C41">
         <v>0.2004338646102796</v>
       </c>
-      <c r="C41">
+      <c r="D41">
         <v>0.028459006765268</v>
       </c>
-      <c r="D41">
+      <c r="E41">
         <v>0.3343215465115995</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>-0.2780084061756867</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>0.4103629790234248</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <v>0.1336718235993181</v>
       </c>
     </row>
@@ -1952,18 +1964,21 @@
         <v>50</v>
       </c>
       <c r="B42">
+        <v>0.1551026493581833</v>
+      </c>
+      <c r="C42">
         <v>-0.01687220848682837</v>
       </c>
-      <c r="C42">
+      <c r="D42">
         <v>0.2889903312595031</v>
       </c>
-      <c r="D42">
+      <c r="E42">
         <v>-0.3233396214277831</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <v>0.3650317637713285</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>0.08834060834722172</v>
       </c>
     </row>
@@ -1972,15 +1987,18 @@
         <v>51</v>
       </c>
       <c r="B43">
+        <v>-0.08373363042288225</v>
+      </c>
+      <c r="C43">
         <v>0.2221289093234493</v>
       </c>
-      <c r="C43">
+      <c r="D43">
         <v>-0.3902010433638369</v>
       </c>
-      <c r="D43">
+      <c r="E43">
         <v>0.2981703418352746</v>
       </c>
-      <c r="E43">
+      <c r="F43">
         <v>0.02147918641116785</v>
       </c>
     </row>
@@ -1989,12 +2007,15 @@
         <v>52</v>
       </c>
       <c r="B44">
+        <v>0.1925427069667326</v>
+      </c>
+      <c r="C44">
         <v>-0.4197872457205535</v>
       </c>
-      <c r="C44">
+      <c r="D44">
         <v>0.268584139478558</v>
       </c>
-      <c r="D44">
+      <c r="E44">
         <v>-0.00810701594554874</v>
       </c>
     </row>
@@ -2003,9 +2024,12 @@
         <v>53</v>
       </c>
       <c r="B45">
+        <v>-0.4379379024501944</v>
+      </c>
+      <c r="C45">
         <v>0.2504334827489171</v>
       </c>
-      <c r="C45">
+      <c r="D45">
         <v>-0.02625767267518964</v>
       </c>
     </row>
@@ -2014,12 +2038,18 @@
         <v>54</v>
       </c>
       <c r="B46">
+        <v>0.2324016585002178</v>
+      </c>
+      <c r="C46">
         <v>-0.04428949692388896</v>
       </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
         <v>55</v>
+      </c>
+      <c r="B47">
+        <v>-0.09587373626955231</v>
       </c>
     </row>
   </sheetData>
